--- a/www/template.xlsx
+++ b/www/template.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavelnovoahernandez/R/sofi/www/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavelnovoahernandez/R/WIBApp/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CC6B60-5948-CC42-9741-732CCA804862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B51FB29-E898-E243-AD79-A6D9077F24EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="500" windowWidth="28040" windowHeight="16220" activeTab="2" xr2:uid="{50C358F7-1EB3-BB4B-8E63-E6BE81DFB268}"/>
+    <workbookView xWindow="9940" yWindow="7420" windowWidth="28040" windowHeight="16220" xr2:uid="{50C358F7-1EB3-BB4B-8E63-E6BE81DFB268}"/>
   </bookViews>
   <sheets>
     <sheet name="criteria" sheetId="1" r:id="rId1"/>
-    <sheet name="solutions" sheetId="3" r:id="rId2"/>
+    <sheet name="alternatives" sheetId="3" r:id="rId2"/>
     <sheet name="evaluations" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -81,9 +81,6 @@
     <t>Domain max</t>
   </si>
   <si>
-    <t>Solution</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Solution 5</t>
+  </si>
+  <si>
+    <t>Alternative</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19775F9F-C09D-644B-AA1D-4D8D5AF89C03}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -589,42 +589,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90CC5BE-46BC-BA40-8033-842104CD2FF9}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,7 +648,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>5.4</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>10.1</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>3</v>
